--- a/biology/Botanique/Rosa_×richardii/Rosa_×richardii.xlsx
+++ b/biology/Botanique/Rosa_×richardii/Rosa_×richardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97richardii</t>
+          <t>Rosa_×richardii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×richardii, le rosier de Saint Jean, rose sainte, rose d'Abyssinie ou ‘Sainte Rose d’Abyssinie’, est une espèce de plantesà fleurs  dicotylédones de la famille des Rosaceae, sous-famille des Rosoideae, originaire d'Afrique de l'Est. C'est un rosier, arbrisseau au port arqué buissonnant d'environ un mètre de haut, aux fleurs simples, roses, à cinq pétales, groupées en petite grappes.
-Ce rosier serait issu d'une hybridation très ancienne, Rosa gallica L. × Rosa phoenicia Boiss. C'est un rosier anciennement cultivé dans les jardins des églises et monastères en Éthiopie. Il a été introduit en Europe en 1895. Ses fleurs auraient servi à fabriquer les guirlandes retrouvées avec des momies dans les tombes de Hawara en Égypte par Sir William Flinders Petrie. Ce rosier a également été assimilé à celui représenté dans la « fresque à l'oiseau bleu » retrouvée dans les vestiges du palais de Minos à Cnossos (Crète) et qui constitue la plus ancienne peinture d'un rosier (bien que certaines fleurs soient représentées avec six pétales au lieu de cinq)[2]. 
+Ce rosier serait issu d'une hybridation très ancienne, Rosa gallica L. × Rosa phoenicia Boiss. C'est un rosier anciennement cultivé dans les jardins des églises et monastères en Éthiopie. Il a été introduit en Europe en 1895. Ses fleurs auraient servi à fabriquer les guirlandes retrouvées avec des momies dans les tombes de Hawara en Égypte par Sir William Flinders Petrie. Ce rosier a également été assimilé à celui représenté dans la « fresque à l'oiseau bleu » retrouvée dans les vestiges du palais de Minos à Cnossos (Crète) et qui constitue la plus ancienne peinture d'un rosier (bien que certaines fleurs soient représentées avec six pétales au lieu de cinq). 
 </t>
         </is>
       </c>
